--- a/Project Management/GDIP - Concept Development.xlsx
+++ b/Project Management/GDIP - Concept Development.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uweacuk-my.sharepoint.com/personal/dominic2_pennycook_live_uwe_ac_uk/Documents/Year 3/GDIP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\UNI\Year 3\GDIP\GDIP_ROBOT\Project Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="419" documentId="8_{B0349027-5D22-4050-A77D-6315827C2DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3F49C22-7F9B-44F4-8FC4-8F03E3E0A924}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEAD6DD-44EE-44BE-9F6B-1CF90B3DBC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{50CFD1A4-8DB2-4323-B6C9-3E5AA89EB931}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="34">
   <si>
     <t>Name:</t>
   </si>
@@ -131,13 +131,30 @@
   <si>
     <t>All scores 1 -10, 10 being good apart from Cost - smaller is better</t>
   </si>
+  <si>
+    <t>Document sign off</t>
+  </si>
+  <si>
+    <t>Emre</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -153,7 +170,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -161,26 +178,143 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -427,7 +561,7 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -464,10 +598,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -767,10 +897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95759925-5FC9-47DE-847B-23360A91E40B}">
-  <dimension ref="A1:W64"/>
+  <dimension ref="A1:W66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N64" sqref="N64"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,14 +922,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -808,67 +938,67 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3">
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1">
         <v>3</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3">
-        <v>4</v>
-      </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1">
+        <v>4</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1">
         <v>5</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3">
-        <v>6</v>
-      </c>
-      <c r="N3" s="3"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1">
+        <v>6</v>
+      </c>
+      <c r="N3" s="1"/>
       <c r="P3" t="s">
         <v>5</v>
       </c>
       <c r="Q3">
         <v>1</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
       <c r="C4" t="s">
         <v>6</v>
       </c>
@@ -905,9 +1035,9 @@
       <c r="N4" t="s">
         <v>7</v>
       </c>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -958,9 +1088,9 @@
         <f>M5*B5</f>
         <v>5</v>
       </c>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1010,9 +1140,9 @@
         <f t="shared" ref="N6:N11" si="4">M6*B6</f>
         <v>4</v>
       </c>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1053,7 +1183,7 @@
         <v>5</v>
       </c>
       <c r="L7">
-        <f t="shared" ref="L6:L11" si="5">K7*B7</f>
+        <f t="shared" ref="L7:L11" si="5">K7*B7</f>
         <v>5</v>
       </c>
       <c r="M7">
@@ -1315,64 +1445,64 @@
       <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
+      <c r="C14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3">
-        <v>2</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3">
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1">
         <v>3</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3">
-        <v>4</v>
-      </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3">
+      <c r="H15" s="1"/>
+      <c r="I15" s="1">
+        <v>4</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1">
         <v>5</v>
       </c>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3">
-        <v>6</v>
-      </c>
-      <c r="N15" s="3"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1">
+        <v>6</v>
+      </c>
+      <c r="N15" s="1"/>
       <c r="Q15">
         <v>2</v>
       </c>
-      <c r="T15" s="1" t="s">
+      <c r="T15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
       <c r="C16" t="s">
         <v>6</v>
       </c>
@@ -1409,9 +1539,9 @@
       <c r="N16" t="s">
         <v>7</v>
       </c>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1462,9 +1592,9 @@
         <f>M17*B17</f>
         <v>2</v>
       </c>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -1515,9 +1645,9 @@
         <f t="shared" ref="N18:N23" si="11">M18*B18</f>
         <v>2.4000000000000004</v>
       </c>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -1568,9 +1698,9 @@
         <f t="shared" si="11"/>
         <v>7</v>
       </c>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -1824,56 +1954,56 @@
       <c r="B26" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
+      <c r="C26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="3">
-        <v>1</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3">
-        <v>2</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3">
+      <c r="B27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1">
+        <v>2</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1">
         <v>3</v>
       </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3">
-        <v>4</v>
-      </c>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3">
+      <c r="H27" s="1"/>
+      <c r="I27" s="1">
+        <v>4</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1">
         <v>5</v>
       </c>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3">
-        <v>6</v>
-      </c>
-      <c r="N27" s="3"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1">
+        <v>6</v>
+      </c>
+      <c r="N27" s="1"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
       <c r="C28" t="s">
         <v>6</v>
       </c>
@@ -1963,12 +2093,12 @@
       <c r="Q29">
         <v>3</v>
       </c>
-      <c r="R29" s="1" t="s">
+      <c r="R29" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -2019,10 +2149,10 @@
         <f t="shared" ref="N30:N35" si="17">M30*B30</f>
         <v>2.4000000000000004</v>
       </c>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -2073,10 +2203,10 @@
         <f t="shared" si="17"/>
         <v>6</v>
       </c>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -2335,56 +2465,56 @@
       <c r="B38" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
+      <c r="C38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="3">
-        <v>1</v>
-      </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3">
-        <v>2</v>
-      </c>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3">
+      <c r="B39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1">
+        <v>2</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1">
         <v>3</v>
       </c>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3">
-        <v>4</v>
-      </c>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3">
+      <c r="H39" s="1"/>
+      <c r="I39" s="1">
+        <v>4</v>
+      </c>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1">
         <v>5</v>
       </c>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3">
-        <v>6</v>
-      </c>
-      <c r="N39" s="3"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1">
+        <v>6</v>
+      </c>
+      <c r="N39" s="1"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
       <c r="C40" t="s">
         <v>6</v>
       </c>
@@ -2724,10 +2854,10 @@
       <c r="Q46">
         <v>5</v>
       </c>
-      <c r="U46" s="3" t="s">
+      <c r="U46" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="V46" s="3"/>
+      <c r="V46" s="1"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -2831,56 +2961,56 @@
       <c r="B50" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
+      <c r="C50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="3">
-        <v>1</v>
-      </c>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3">
-        <v>2</v>
-      </c>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3">
+      <c r="B51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1">
+        <v>2</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1">
         <v>3</v>
       </c>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3">
-        <v>4</v>
-      </c>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3">
+      <c r="H51" s="1"/>
+      <c r="I51" s="1">
+        <v>4</v>
+      </c>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1">
         <v>5</v>
       </c>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3">
-        <v>6</v>
-      </c>
-      <c r="N51" s="3"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1">
+        <v>6</v>
+      </c>
+      <c r="N51" s="1"/>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
       <c r="C52" t="s">
         <v>6</v>
       </c>
@@ -3357,34 +3487,114 @@
         <f>SUM(N53:N59)</f>
         <v>19.100000000000001</v>
       </c>
-      <c r="U60" s="1" t="s">
+      <c r="U60" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="V60" s="1"/>
-      <c r="W60" s="1"/>
+      <c r="V60" s="2"/>
+      <c r="W60" s="2"/>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="U61" s="1"/>
-      <c r="V61" s="1"/>
-      <c r="W61" s="1"/>
+      <c r="U61" s="2"/>
+      <c r="V61" s="2"/>
+      <c r="W61" s="2"/>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="U62" s="1"/>
-      <c r="V62" s="1"/>
-      <c r="W62" s="1"/>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="U63" s="1"/>
-      <c r="V63" s="1"/>
-      <c r="W63" s="1"/>
+      <c r="U62" s="2"/>
+      <c r="V62" s="2"/>
+      <c r="W62" s="2"/>
+    </row>
+    <row r="63" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U63" s="2"/>
+      <c r="V63" s="2"/>
+      <c r="W63" s="2"/>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="U64" s="1"/>
-      <c r="V64" s="1"/>
-      <c r="W64" s="1"/>
+      <c r="A64" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="6"/>
+      <c r="U64" s="2"/>
+      <c r="V64" s="2"/>
+      <c r="W64" s="2"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="51">
+  <mergeCells count="52">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="T3:V6"/>
+    <mergeCell ref="T15:V19"/>
+    <mergeCell ref="R29:U31"/>
+    <mergeCell ref="C50:N50"/>
+    <mergeCell ref="C26:N26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="C38:N38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
     <mergeCell ref="U46:V46"/>
     <mergeCell ref="U60:W64"/>
     <mergeCell ref="A1:F1"/>
@@ -3401,44 +3611,9 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="C38:N38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="T3:V6"/>
-    <mergeCell ref="T15:V19"/>
-    <mergeCell ref="R29:U31"/>
-    <mergeCell ref="C50:N50"/>
-    <mergeCell ref="C26:N26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
   </mergeCells>
-  <conditionalFormatting sqref="F12 D12 H12 J12 L12 N12">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="D12 F12 H12 J12 L12 N12">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3449,8 +3624,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24 D24 H24 J24 L24 N24 D36 F36 H36 J36 L36 N36 D48 F48 H48 J48 L48 N48 D60:D61 F60:F61 H60:H61 J60:J61 L60:L61 N60:N61">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="D24 F24 H24 J24 L24 N24 D36 F36 H36 J36 L36 N36 D48 F48 H48 J48 L48 N48 D60:D61 F60:F61 H60:H61 J60:J61 L60:L61 N60:N61">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3459,6 +3634,19 @@
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:A66">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Partial">
+      <formula>NOT(ISERROR(SEARCH("Partial",A64)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Full">
+      <formula>NOT(ISERROR(SEARCH("Full",A64)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64:A66">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",A64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project Management/GDIP - Concept Development.xlsx
+++ b/Project Management/GDIP - Concept Development.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\UNI\Year 3\GDIP\GDIP_ROBOT\Project Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEAD6DD-44EE-44BE-9F6B-1CF90B3DBC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E831F266-8FD2-486E-A680-FF02A23DB938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{50CFD1A4-8DB2-4323-B6C9-3E5AA89EB931}"/>
+    <workbookView xWindow="-315" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{50CFD1A4-8DB2-4323-B6C9-3E5AA89EB931}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="38">
   <si>
     <t>Name:</t>
   </si>
@@ -140,12 +140,24 @@
   <si>
     <t>Yes</t>
   </si>
+  <si>
+    <t xml:space="preserve">Stakeholder sign off </t>
+  </si>
+  <si>
+    <t>Which Stakeholder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UWE Fet Team </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +168,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -262,21 +282,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -288,6 +296,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,25 +491,59 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2056838" cy="599095"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49E5CB60-D2F0-4688-BBB7-AC0D570A8B11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13587337" y="6140601"/>
+          <a:ext cx="2056838" cy="599095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>578310</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="4802117" cy="1581906"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C62C4320-3C8F-D317-2DD4-01A63A6FAF4E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87ED47A9-339D-4040-A45F-17EA277E3B96}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -493,8 +559,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12372976" y="6667500"/>
-          <a:ext cx="4835984" cy="1533525"/>
+          <a:off x="13601550" y="7075714"/>
+          <a:ext cx="4802117" cy="1581906"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -502,26 +568,21 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>128588</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="1280962" cy="2665942"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 5">
+        <xdr:cNvPr id="14" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0067B98F-DF63-6C49-D91D-F5D780EDF683}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFF292C9-88D7-41AE-8B42-F1281E3D4D73}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
               <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C62C4320-3C8F-D317-2DD4-01A63A6FAF4E}"/>
@@ -540,8 +601,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12601575" y="8534399"/>
-          <a:ext cx="1290638" cy="2581275"/>
+          <a:off x="13649174" y="8800494"/>
+          <a:ext cx="1280962" cy="2665942"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -549,26 +610,21 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="1119112" cy="2307015"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 6">
+        <xdr:cNvPr id="15" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A95DEB7-91C3-AAE4-6327-363D6D42A381}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF60F280-F0CD-498C-BF67-7ADC2CD04005}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
               <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0067B98F-DF63-6C49-D91D-F5D780EDF683}"/>
@@ -587,8 +643,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12563475" y="11153775"/>
-          <a:ext cx="1123950" cy="2257425"/>
+          <a:off x="13611074" y="11504537"/>
+          <a:ext cx="1119112" cy="2307015"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -596,7 +652,7 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -897,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95759925-5FC9-47DE-847B-23360A91E40B}">
-  <dimension ref="A1:W66"/>
+  <dimension ref="A1:AC66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z60" sqref="Z60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,92 +969,101 @@
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="C2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1">
+      <c r="B3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9">
+        <v>2</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9">
         <v>3</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1">
-        <v>4</v>
-      </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1">
+      <c r="H3" s="9"/>
+      <c r="I3" s="9">
+        <v>4</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9">
         <v>5</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1">
-        <v>6</v>
-      </c>
-      <c r="N3" s="1"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9">
+        <v>6</v>
+      </c>
+      <c r="N3" s="9"/>
       <c r="P3" t="s">
         <v>5</v>
       </c>
       <c r="Q3">
         <v>1</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="T3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3">
+        <v>3</v>
+      </c>
+      <c r="X3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
       <c r="C4" t="s">
         <v>6</v>
       </c>
@@ -1035,11 +1100,15 @@
       <c r="N4" t="s">
         <v>7</v>
       </c>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1088,11 +1157,15 @@
         <f>M5*B5</f>
         <v>5</v>
       </c>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1140,11 +1213,11 @@
         <f t="shared" ref="N6:N11" si="4">M6*B6</f>
         <v>4</v>
       </c>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1194,7 +1267,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1244,7 +1317,7 @@
         <v>-2.7</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1294,7 +1367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1344,7 +1417,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1393,8 +1466,11 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>14</v>
       </c>
@@ -1438,71 +1514,71 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="C14" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1">
-        <v>2</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1">
+      <c r="B15" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9">
+        <v>2</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9">
         <v>3</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1">
-        <v>4</v>
-      </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1">
+      <c r="H15" s="9"/>
+      <c r="I15" s="9">
+        <v>4</v>
+      </c>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9">
         <v>5</v>
       </c>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1">
-        <v>6</v>
-      </c>
-      <c r="N15" s="1"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9">
+        <v>6</v>
+      </c>
+      <c r="N15" s="9"/>
       <c r="Q15">
         <v>2</v>
       </c>
-      <c r="T15" s="2" t="s">
+      <c r="T15" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
       <c r="C16" t="s">
         <v>6</v>
       </c>
@@ -1539,11 +1615,11 @@
       <c r="N16" t="s">
         <v>7</v>
       </c>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1592,11 +1668,11 @@
         <f>M17*B17</f>
         <v>2</v>
       </c>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -1645,11 +1721,11 @@
         <f t="shared" ref="N18:N23" si="11">M18*B18</f>
         <v>2.4000000000000004</v>
       </c>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1698,11 +1774,11 @@
         <f t="shared" si="11"/>
         <v>7</v>
       </c>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1751,8 +1827,15 @@
         <f t="shared" si="11"/>
         <v>-0.9</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W20">
+        <v>5</v>
+      </c>
+      <c r="AA20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB20" s="9"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -1802,7 +1885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1852,7 +1935,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -1902,7 +1985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>14</v>
       </c>
@@ -1947,63 +2030,63 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="C26" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1">
-        <v>2</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1">
+      <c r="B27" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="9">
+        <v>1</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9">
+        <v>2</v>
+      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9">
         <v>3</v>
       </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1">
-        <v>4</v>
-      </c>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1">
+      <c r="H27" s="9"/>
+      <c r="I27" s="9">
+        <v>4</v>
+      </c>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9">
         <v>5</v>
       </c>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1">
-        <v>6</v>
-      </c>
-      <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9">
+        <v>6</v>
+      </c>
+      <c r="N27" s="9"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
       <c r="C28" t="s">
         <v>6</v>
       </c>
@@ -2041,7 +2124,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -2093,14 +2176,14 @@
       <c r="Q29">
         <v>3</v>
       </c>
-      <c r="R29" s="2" t="s">
+      <c r="R29" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -2149,12 +2232,12 @@
         <f t="shared" ref="N30:N35" si="17">M30*B30</f>
         <v>2.4000000000000004</v>
       </c>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -2203,12 +2286,12 @@
         <f t="shared" si="17"/>
         <v>6</v>
       </c>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -2258,7 +2341,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -2307,8 +2390,11 @@
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -2357,8 +2443,13 @@
         <f t="shared" si="17"/>
         <v>2.0999999999999996</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AA34" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB34" s="13"/>
+      <c r="AC34" s="13"/>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -2407,8 +2498,11 @@
         <f t="shared" si="17"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AA35" s="13"/>
+      <c r="AB35" s="13"/>
+      <c r="AC35" s="13"/>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>14</v>
       </c>
@@ -2452,69 +2546,75 @@
         <f>SUM(N29:N35)</f>
         <v>17.600000000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="Q37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AA36" s="13"/>
+      <c r="AB36" s="13"/>
+      <c r="AC36" s="13"/>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA37" s="13"/>
+      <c r="AB37" s="13"/>
+      <c r="AC37" s="13"/>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
       <c r="B38" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="C38" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="AA38" s="13"/>
+      <c r="AB38" s="13"/>
+      <c r="AC38" s="13"/>
+    </row>
+    <row r="39" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="1">
-        <v>1</v>
-      </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1">
-        <v>2</v>
-      </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1">
+      <c r="B39" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="9">
+        <v>1</v>
+      </c>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9">
+        <v>2</v>
+      </c>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9">
         <v>3</v>
       </c>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1">
-        <v>4</v>
-      </c>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1">
+      <c r="H39" s="9"/>
+      <c r="I39" s="9">
+        <v>4</v>
+      </c>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9">
         <v>5</v>
       </c>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1">
-        <v>6</v>
-      </c>
-      <c r="N39" s="1"/>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9">
+        <v>6</v>
+      </c>
+      <c r="N39" s="9"/>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
       <c r="C40" t="s">
         <v>6</v>
       </c>
@@ -2552,7 +2652,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -2602,7 +2702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -2652,7 +2752,7 @@
         <v>2.4000000000000004</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -2702,7 +2802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -2752,7 +2852,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -2802,7 +2902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -2851,15 +2951,10 @@
         <f t="shared" si="23"/>
         <v>4.1999999999999993</v>
       </c>
-      <c r="Q46">
-        <v>5</v>
-      </c>
-      <c r="U46" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="V46" s="1"/>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U46" s="9"/>
+      <c r="V46" s="9"/>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -2909,7 +3004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>14</v>
       </c>
@@ -2961,56 +3056,56 @@
       <c r="B50" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
+      <c r="C50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="1">
-        <v>1</v>
-      </c>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1">
-        <v>2</v>
-      </c>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1">
+      <c r="B51" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="9">
+        <v>1</v>
+      </c>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9">
+        <v>2</v>
+      </c>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9">
         <v>3</v>
       </c>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1">
-        <v>4</v>
-      </c>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1">
+      <c r="H51" s="9"/>
+      <c r="I51" s="9">
+        <v>4</v>
+      </c>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9">
         <v>5</v>
       </c>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1">
-        <v>6</v>
-      </c>
-      <c r="N51" s="1"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9">
+        <v>6</v>
+      </c>
+      <c r="N51" s="9"/>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
       <c r="C52" t="s">
         <v>6</v>
       </c>
@@ -3439,9 +3534,6 @@
         <f t="shared" si="35"/>
         <v>2.75</v>
       </c>
-      <c r="Q59">
-        <v>6</v>
-      </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
@@ -3487,115 +3579,91 @@
         <f>SUM(N53:N59)</f>
         <v>19.100000000000001</v>
       </c>
-      <c r="U60" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="V60" s="2"/>
-      <c r="W60" s="2"/>
+      <c r="U60" s="13"/>
+      <c r="V60" s="13"/>
+      <c r="W60" s="13"/>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="U61" s="2"/>
-      <c r="V61" s="2"/>
-      <c r="W61" s="2"/>
+      <c r="U61" s="13"/>
+      <c r="V61" s="13"/>
+      <c r="W61" s="13"/>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="U62" s="2"/>
-      <c r="V62" s="2"/>
-      <c r="W62" s="2"/>
+      <c r="U62" s="13"/>
+      <c r="V62" s="13"/>
+      <c r="W62" s="13"/>
     </row>
     <row r="63" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U63" s="2"/>
-      <c r="V63" s="2"/>
-      <c r="W63" s="2"/>
+      <c r="U63" s="13"/>
+      <c r="V63" s="13"/>
+      <c r="W63" s="13"/>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="6"/>
-      <c r="U64" s="2"/>
-      <c r="V64" s="2"/>
-      <c r="W64" s="2"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B65" s="8" t="s">
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="12"/>
+      <c r="I64" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U64" s="13"/>
+      <c r="V64" s="13"/>
+      <c r="W64" s="13"/>
+    </row>
+    <row r="65" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8" t="s">
+      <c r="C65" s="4"/>
+      <c r="D65" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E65" s="8" t="s">
+      <c r="E65" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F65" s="9" t="s">
+      <c r="F65" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="10" t="s">
+      <c r="I65" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J65" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11" t="s">
+      <c r="C66" s="7"/>
+      <c r="D66" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E66" s="11" t="s">
+      <c r="E66" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F66" s="12" t="s">
+      <c r="F66" s="8" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="T3:V6"/>
-    <mergeCell ref="T15:V19"/>
-    <mergeCell ref="R29:U31"/>
-    <mergeCell ref="C50:N50"/>
-    <mergeCell ref="C26:N26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="C38:N38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="U46:V46"/>
+  <mergeCells count="55">
+    <mergeCell ref="X3:AA5"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AA34:AC38"/>
     <mergeCell ref="U60:W64"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="C2:N2"/>
@@ -3611,8 +3679,45 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="C38:N38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="T3:V6"/>
+    <mergeCell ref="T15:V19"/>
+    <mergeCell ref="R29:U31"/>
+    <mergeCell ref="C50:N50"/>
+    <mergeCell ref="C26:N26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="U46:V46"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
   </mergeCells>
-  <conditionalFormatting sqref="D12 F12 H12 J12 L12 N12">
+  <conditionalFormatting sqref="F12 D12 H12 J12 L12 N12">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -3624,7 +3729,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24 F24 H24 J24 L24 N24 D36 F36 H36 J36 L36 N36 D48 F48 H48 J48 L48 N48 D60:D61 F60:F61 H60:H61 J60:J61 L60:L61 N60:N61">
+  <conditionalFormatting sqref="F24 D24 H24 J24 L24 N24 D36 F36 H36 J36 L36 N36 D48 F48 H48 J48 L48 N48 D60:D61 F60:F61 H60:H61 J60:J61 L60:L61 N60:N61">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>

--- a/Project Management/GDIP - Concept Development.xlsx
+++ b/Project Management/GDIP - Concept Development.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\UNI\Year 3\GDIP\GDIP_ROBOT\Project Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Uni\Year 3\GDIP\Github\GDIP_ROBOT\Project Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E831F266-8FD2-486E-A680-FF02A23DB938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5265885F-DD63-43FF-A93C-6DB0C5CD90BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-315" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{50CFD1A4-8DB2-4323-B6C9-3E5AA89EB931}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{50CFD1A4-8DB2-4323-B6C9-3E5AA89EB931}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Chart1" sheetId="3" state="hidden" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -282,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -296,8 +297,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -308,23 +321,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -359,7 +393,810 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1645474783"/>
+        <c:axId val="1645476031"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1645474783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1645476031"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1645476031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1645474783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{C3829D75-2B24-470D-B8E5-7BD74BB9CCAF}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9304587" cy="6077107"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA4C18DF-20E4-1275-C715-9F69995ED6BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -953,10 +1790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95759925-5FC9-47DE-847B-23360A91E40B}">
-  <dimension ref="A1:AC66"/>
+  <dimension ref="A1:AC67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z60" sqref="Z60"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB73" sqref="AB73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,23 +1806,26 @@
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -994,76 +1834,76 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
     </row>
     <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="12">
         <v>1</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9">
+      <c r="D3" s="12"/>
+      <c r="E3" s="12">
         <v>2</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9">
+      <c r="F3" s="12"/>
+      <c r="G3" s="12">
         <v>3</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9">
+      <c r="H3" s="12"/>
+      <c r="I3" s="12">
         <v>4</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9">
+      <c r="J3" s="12"/>
+      <c r="K3" s="12">
         <v>5</v>
       </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9">
-        <v>6</v>
-      </c>
-      <c r="N3" s="9"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12">
+        <v>6</v>
+      </c>
+      <c r="N3" s="12"/>
       <c r="P3" t="s">
         <v>5</v>
       </c>
       <c r="Q3">
         <v>1</v>
       </c>
-      <c r="T3" s="13" t="s">
+      <c r="T3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
       <c r="W3">
         <v>3</v>
       </c>
-      <c r="X3" s="13" t="s">
+      <c r="X3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
       <c r="C4" t="s">
         <v>6</v>
       </c>
@@ -1100,13 +1940,13 @@
       <c r="N4" t="s">
         <v>7</v>
       </c>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1157,13 +1997,13 @@
         <f>M5*B5</f>
         <v>5</v>
       </c>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1213,9 +2053,9 @@
         <f t="shared" ref="N6:N11" si="4">M6*B6</f>
         <v>4</v>
       </c>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1521,64 +2361,64 @@
       <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="12">
         <v>1</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9">
+      <c r="D15" s="12"/>
+      <c r="E15" s="12">
         <v>2</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9">
+      <c r="F15" s="12"/>
+      <c r="G15" s="12">
         <v>3</v>
       </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9">
+      <c r="H15" s="12"/>
+      <c r="I15" s="12">
         <v>4</v>
       </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9">
+      <c r="J15" s="12"/>
+      <c r="K15" s="12">
         <v>5</v>
       </c>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9">
-        <v>6</v>
-      </c>
-      <c r="N15" s="9"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12">
+        <v>6</v>
+      </c>
+      <c r="N15" s="12"/>
       <c r="Q15">
         <v>2</v>
       </c>
-      <c r="T15" s="13" t="s">
+      <c r="T15" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
       <c r="C16" t="s">
         <v>6</v>
       </c>
@@ -1615,9 +2455,9 @@
       <c r="N16" t="s">
         <v>7</v>
       </c>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1668,9 +2508,9 @@
         <f>M17*B17</f>
         <v>2</v>
       </c>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -1721,9 +2561,9 @@
         <f t="shared" ref="N18:N23" si="11">M18*B18</f>
         <v>2.4000000000000004</v>
       </c>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -1774,9 +2614,9 @@
         <f t="shared" si="11"/>
         <v>7</v>
       </c>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -1830,10 +2670,10 @@
       <c r="W20">
         <v>5</v>
       </c>
-      <c r="AA20" s="9" t="s">
+      <c r="AA20" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="AB20" s="9"/>
+      <c r="AB20" s="12"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -2037,56 +2877,56 @@
       <c r="B26" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="12">
         <v>1</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9">
+      <c r="D27" s="12"/>
+      <c r="E27" s="12">
         <v>2</v>
       </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9">
+      <c r="F27" s="12"/>
+      <c r="G27" s="12">
         <v>3</v>
       </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9">
+      <c r="H27" s="12"/>
+      <c r="I27" s="12">
         <v>4</v>
       </c>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9">
+      <c r="J27" s="12"/>
+      <c r="K27" s="12">
         <v>5</v>
       </c>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9">
-        <v>6</v>
-      </c>
-      <c r="N27" s="9"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12">
+        <v>6</v>
+      </c>
+      <c r="N27" s="12"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
       <c r="C28" t="s">
         <v>6</v>
       </c>
@@ -2176,12 +3016,12 @@
       <c r="Q29">
         <v>3</v>
       </c>
-      <c r="R29" s="13" t="s">
+      <c r="R29" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -2232,10 +3072,10 @@
         <f t="shared" ref="N30:N35" si="17">M30*B30</f>
         <v>2.4000000000000004</v>
       </c>
-      <c r="R30" s="13"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="13"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -2286,10 +3126,10 @@
         <f t="shared" si="17"/>
         <v>6</v>
       </c>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -2394,7 +3234,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -2443,11 +3283,11 @@
         <f t="shared" si="17"/>
         <v>2.0999999999999996</v>
       </c>
-      <c r="AA34" s="13" t="s">
+      <c r="AA34" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="AB34" s="13"/>
-      <c r="AC34" s="13"/>
+      <c r="AB34" s="11"/>
+      <c r="AC34" s="11"/>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -2498,9 +3338,9 @@
         <f t="shared" si="17"/>
         <v>4</v>
       </c>
-      <c r="AA35" s="13"/>
-      <c r="AB35" s="13"/>
-      <c r="AC35" s="13"/>
+      <c r="AA35" s="11"/>
+      <c r="AB35" s="11"/>
+      <c r="AC35" s="11"/>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
@@ -2546,14 +3386,14 @@
         <f>SUM(N29:N35)</f>
         <v>17.600000000000001</v>
       </c>
-      <c r="AA36" s="13"/>
-      <c r="AB36" s="13"/>
-      <c r="AC36" s="13"/>
+      <c r="AA36" s="11"/>
+      <c r="AB36" s="11"/>
+      <c r="AC36" s="11"/>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="AA37" s="13"/>
-      <c r="AB37" s="13"/>
-      <c r="AC37" s="13"/>
+      <c r="AA37" s="11"/>
+      <c r="AB37" s="11"/>
+      <c r="AC37" s="11"/>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -2562,59 +3402,62 @@
       <c r="B38" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="AA38" s="13"/>
-      <c r="AB38" s="13"/>
-      <c r="AC38" s="13"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="AA38" s="11"/>
+      <c r="AB38" s="11"/>
+      <c r="AC38" s="11"/>
     </row>
     <row r="39" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="12">
         <v>1</v>
       </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9">
+      <c r="D39" s="12"/>
+      <c r="E39" s="12">
         <v>2</v>
       </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9">
+      <c r="F39" s="12"/>
+      <c r="G39" s="12">
         <v>3</v>
       </c>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9">
+      <c r="H39" s="12"/>
+      <c r="I39" s="12">
         <v>4</v>
       </c>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9">
+      <c r="J39" s="12"/>
+      <c r="K39" s="12">
         <v>5</v>
       </c>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9">
-        <v>6</v>
-      </c>
-      <c r="N39" s="9"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12">
+        <v>6</v>
+      </c>
+      <c r="N39" s="12"/>
+      <c r="AA39" s="11"/>
+      <c r="AB39" s="11"/>
+      <c r="AC39" s="11"/>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
       <c r="C40" t="s">
         <v>6</v>
       </c>
@@ -2651,6 +3494,9 @@
       <c r="N40" t="s">
         <v>7</v>
       </c>
+      <c r="AA40" s="11"/>
+      <c r="AB40" s="11"/>
+      <c r="AC40" s="11"/>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -2701,6 +3547,9 @@
         <f>M41*B41</f>
         <v>3</v>
       </c>
+      <c r="AA41" s="11"/>
+      <c r="AB41" s="11"/>
+      <c r="AC41" s="11"/>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -2951,8 +3800,8 @@
         <f t="shared" si="23"/>
         <v>4.1999999999999993</v>
       </c>
-      <c r="U46" s="9"/>
-      <c r="V46" s="9"/>
+      <c r="U46" s="12"/>
+      <c r="V46" s="12"/>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -3049,63 +3898,77 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>0</v>
       </c>
       <c r="B50" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="12">
         <v>1</v>
       </c>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9">
+      <c r="D51" s="12"/>
+      <c r="E51" s="12">
         <v>2</v>
       </c>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9">
+      <c r="F51" s="12"/>
+      <c r="G51" s="12">
         <v>3</v>
       </c>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9">
+      <c r="H51" s="12"/>
+      <c r="I51" s="12">
         <v>4</v>
       </c>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9">
+      <c r="J51" s="12"/>
+      <c r="K51" s="12">
         <v>5</v>
       </c>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9">
-        <v>6</v>
-      </c>
-      <c r="N51" s="9"/>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12">
+        <v>6</v>
+      </c>
+      <c r="N51" s="12"/>
+      <c r="S51" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="T51" s="15"/>
+      <c r="U51" s="15"/>
+      <c r="V51" s="15"/>
+      <c r="W51" s="15"/>
+      <c r="X51" s="16"/>
+      <c r="AA51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB51" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
       <c r="C52" t="s">
         <v>6</v>
       </c>
@@ -3142,8 +4005,30 @@
       <c r="N52" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="S52" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T52" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U52" s="4"/>
+      <c r="V52" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W52" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="X52" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA52" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB52" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -3198,8 +4083,24 @@
         <f>M53*B53</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="S53" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="T53" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="U53" s="7"/>
+      <c r="V53" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="W53" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="X53" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -3255,7 +4156,7 @@
         <v>2.8000000000000003</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -3311,7 +4212,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -3367,7 +4268,7 @@
         <v>-1.35</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -3423,7 +4324,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -3479,7 +4380,7 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>13</v>
       </c>
@@ -3535,7 +4436,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>14</v>
       </c>
@@ -3579,92 +4480,120 @@
         <f>SUM(N53:N59)</f>
         <v>19.100000000000001</v>
       </c>
-      <c r="U60" s="13"/>
-      <c r="V60" s="13"/>
-      <c r="W60" s="13"/>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="U61" s="13"/>
-      <c r="V61" s="13"/>
-      <c r="W61" s="13"/>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="U62" s="13"/>
-      <c r="V62" s="13"/>
-      <c r="W62" s="13"/>
-    </row>
-    <row r="63" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U63" s="13"/>
-      <c r="V63" s="13"/>
-      <c r="W63" s="13"/>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A64" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="12"/>
-      <c r="I64" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U64" s="13"/>
-      <c r="V64" s="13"/>
-      <c r="W64" s="13"/>
-    </row>
-    <row r="65" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I65" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="J65" s="16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="U60" s="22"/>
+      <c r="V60" s="22"/>
+      <c r="W60" s="22"/>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="U61" s="22"/>
+      <c r="V61" s="22"/>
+      <c r="W61" s="22"/>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="U62" s="22"/>
+      <c r="V62" s="22"/>
+      <c r="W62" s="22"/>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="U63" s="22"/>
+      <c r="V63" s="22"/>
+      <c r="W63" s="22"/>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A64" s="21"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="18"/>
+      <c r="U64" s="22"/>
+      <c r="V64" s="22"/>
+      <c r="W64" s="22"/>
+    </row>
+    <row r="65" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="19"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="20"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="19"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="17"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="17"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="54">
+    <mergeCell ref="S51:X51"/>
+    <mergeCell ref="AA34:AC41"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="T3:V6"/>
+    <mergeCell ref="T15:V19"/>
+    <mergeCell ref="R29:U31"/>
+    <mergeCell ref="C50:N50"/>
+    <mergeCell ref="C26:N26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="U46:V46"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="C38:N38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G27:H27"/>
     <mergeCell ref="X3:AA5"/>
     <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AA34:AC38"/>
-    <mergeCell ref="U60:W64"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="C2:N2"/>
     <mergeCell ref="C3:D3"/>
@@ -3677,48 +4606,9 @@
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="C38:N38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="T3:V6"/>
-    <mergeCell ref="T15:V19"/>
-    <mergeCell ref="R29:U31"/>
-    <mergeCell ref="C50:N50"/>
-    <mergeCell ref="C26:N26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="U46:V46"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
   </mergeCells>
-  <conditionalFormatting sqref="F12 D12 H12 J12 L12 N12">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="D12 F12 H12 J12 L12 N12">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3729,8 +4619,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24 D24 H24 J24 L24 N24 D36 F36 H36 J36 L36 N36 D48 F48 H48 J48 L48 N48 D60:D61 F60:F61 H60:H61 J60:J61 L60:L61 N60:N61">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="D24 F24 H24 J24 L24 N24 D36 F36 H36 J36 L36 N36 D48 F48 H48 J48 L48 N48 D60:D61 F60:F61 H60:H61 J60:J61 L60:L61 N60:N61">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3742,16 +4632,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:A66">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Partial">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Partial">
       <formula>NOT(ISERROR(SEARCH("Partial",A64)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Full">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Full">
       <formula>NOT(ISERROR(SEARCH("Full",A64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:A66">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",A64)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S51:S53">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Partial">
+      <formula>NOT(ISERROR(SEARCH("Partial",S51)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Full">
+      <formula>NOT(ISERROR(SEARCH("Full",S51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S51:S53">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",A64)))</formula>
+      <formula>NOT(ISERROR(SEARCH("None",S51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
